--- a/整理品规.xlsx
+++ b/整理品规.xlsx
@@ -9498,7 +9498,7 @@
         <v>800</v>
       </c>
       <c r="F5" t="str">
-        <v>150+760</v>
+        <v>150+610</v>
       </c>
       <c r="G5" t="s">
         <v>56</v>
@@ -9816,7 +9816,7 @@
         <v>800</v>
       </c>
       <c r="F8" t="str">
-        <v>150+760</v>
+        <v>150+610</v>
       </c>
       <c r="G8" t="s">
         <v>56</v>
@@ -10033,7 +10033,7 @@
         <v>800</v>
       </c>
       <c r="F10" t="str">
-        <v>150+760</v>
+        <v>150+610</v>
       </c>
       <c r="G10" t="s">
         <v>105</v>
@@ -10475,7 +10475,7 @@
         <v>800</v>
       </c>
       <c r="F15" t="str">
-        <v>150+760</v>
+        <v>150+610</v>
       </c>
       <c r="G15" t="s">
         <v>105</v>
@@ -10804,7 +10804,7 @@
         <v>800</v>
       </c>
       <c r="F19" t="str">
-        <v>150+760</v>
+        <v>150+610</v>
       </c>
       <c r="G19" t="s">
         <v>105</v>
@@ -11172,7 +11172,7 @@
         <v>800</v>
       </c>
       <c r="F23" t="str">
-        <v>23+760</v>
+        <v>23+737</v>
       </c>
       <c r="G23" t="s">
         <v>176</v>
@@ -11261,7 +11261,7 @@
         <v>800</v>
       </c>
       <c r="F24" t="str">
-        <v>23+760</v>
+        <v>23+737</v>
       </c>
       <c r="G24" t="s">
         <v>176</v>
@@ -12715,7 +12715,7 @@
         <v>800</v>
       </c>
       <c r="F40" t="str">
-        <v>90+212+358+612+730+760</v>
+        <v>90+122+146+254+118+30</v>
       </c>
       <c r="G40" t="s">
         <v>283</v>
@@ -12953,7 +12953,7 @@
         <v>800</v>
       </c>
       <c r="F42" t="str">
-        <v>61+760</v>
+        <v>61+699</v>
       </c>
       <c r="G42" t="s">
         <v>316</v>
@@ -13072,7 +13072,7 @@
         <v>800</v>
       </c>
       <c r="F43" t="str">
-        <v>61+760</v>
+        <v>61+699</v>
       </c>
       <c r="G43" t="s">
         <v>316</v>
@@ -13191,7 +13191,7 @@
         <v>800</v>
       </c>
       <c r="F44" t="str">
-        <v>90+212+358+612+730+760</v>
+        <v>90+122+146+254+118+30</v>
       </c>
       <c r="G44" t="s">
         <v>283</v>
@@ -13313,7 +13313,7 @@
         <v>800</v>
       </c>
       <c r="F45" t="str">
-        <v>61+760</v>
+        <v>61+699</v>
       </c>
       <c r="G45" t="s">
         <v>316</v>
@@ -13432,7 +13432,7 @@
         <v>800</v>
       </c>
       <c r="F46" t="str">
-        <v>61+760</v>
+        <v>61+699</v>
       </c>
       <c r="G46" t="s">
         <v>316</v>
@@ -13554,7 +13554,7 @@
         <v>800</v>
       </c>
       <c r="F47" t="str">
-        <v>90+212+358+612+730+760</v>
+        <v>90+122+146+254+118+30</v>
       </c>
       <c r="G47" t="s">
         <v>283</v>
@@ -13801,7 +13801,7 @@
         <v>800</v>
       </c>
       <c r="F49" t="str">
-        <v>61+760</v>
+        <v>61+699</v>
       </c>
       <c r="G49" t="s">
         <v>316</v>
@@ -13914,7 +13914,7 @@
         <v>800</v>
       </c>
       <c r="F50" t="str">
-        <v>61+423+669+760</v>
+        <v>61+362+246+91</v>
       </c>
       <c r="G50" t="s">
         <v>365</v>
@@ -14018,7 +14018,7 @@
         <v>800</v>
       </c>
       <c r="F51" t="str">
-        <v>61+760</v>
+        <v>61+699</v>
       </c>
       <c r="G51" t="s">
         <v>316</v>
@@ -14244,7 +14244,7 @@
         <v>800</v>
       </c>
       <c r="F53" t="str">
-        <v>61+69+760</v>
+        <v>61+8+691</v>
       </c>
       <c r="G53" t="s">
         <v>384</v>
@@ -14330,7 +14330,7 @@
         <v>800</v>
       </c>
       <c r="F54" t="str">
-        <v>93+760</v>
+        <v>93+667</v>
       </c>
       <c r="G54" t="s">
         <v>391</v>
@@ -14499,7 +14499,7 @@
         <v>800</v>
       </c>
       <c r="F56" t="str">
-        <v>93+760</v>
+        <v>93+667</v>
       </c>
       <c r="G56" t="s">
         <v>391</v>
@@ -14668,7 +14668,7 @@
         <v>800</v>
       </c>
       <c r="F58" t="str">
-        <v>61+69+760</v>
+        <v>61+8+691</v>
       </c>
       <c r="G58" t="s">
         <v>384</v>
@@ -14757,7 +14757,7 @@
         <v>800</v>
       </c>
       <c r="F59" t="str">
-        <v>150+760</v>
+        <v>150+610</v>
       </c>
       <c r="G59" t="s">
         <v>56</v>
@@ -14938,7 +14938,7 @@
         <v>800</v>
       </c>
       <c r="F61" t="str">
-        <v>150+760</v>
+        <v>150+610</v>
       </c>
       <c r="G61" t="s">
         <v>56</v>
@@ -15036,7 +15036,7 @@
         <v>800</v>
       </c>
       <c r="F62" t="str">
-        <v>60+600+667+760</v>
+        <v>60+540+67+93</v>
       </c>
       <c r="G62" t="s">
         <v>423</v>
@@ -15217,7 +15217,7 @@
         <v>800</v>
       </c>
       <c r="F64" t="str">
-        <v>61+602+668+760</v>
+        <v>61+541+66+92</v>
       </c>
       <c r="G64" t="s">
         <v>441</v>
@@ -15318,7 +15318,7 @@
         <v>800</v>
       </c>
       <c r="F65" t="str">
-        <v>95+760</v>
+        <v>95+665</v>
       </c>
       <c r="G65" t="s">
         <v>451</v>
@@ -15496,7 +15496,7 @@
         <v>800</v>
       </c>
       <c r="F67" t="str">
-        <v>95+760</v>
+        <v>95+665</v>
       </c>
       <c r="G67" t="s">
         <v>451</v>
@@ -15763,7 +15763,7 @@
         <v>800</v>
       </c>
       <c r="F70" t="str">
-        <v>60+600+667+760</v>
+        <v>60+540+67+93</v>
       </c>
       <c r="G70" t="s">
         <v>423</v>
@@ -15953,7 +15953,7 @@
         <v>800</v>
       </c>
       <c r="F72" t="str">
-        <v>501+760</v>
+        <v>501+259</v>
       </c>
       <c r="G72" t="s">
         <v>483</v>
@@ -16051,7 +16051,7 @@
         <v>760</v>
       </c>
       <c r="F73" t="str">
-        <v>750+720</v>
+        <v>750+-30</v>
       </c>
       <c r="G73" t="s">
         <v>492</v>
@@ -16167,7 +16167,7 @@
         <v>800</v>
       </c>
       <c r="F74" t="str">
-        <v>501+760</v>
+        <v>501+259</v>
       </c>
       <c r="G74" t="s">
         <v>483</v>
@@ -16271,7 +16271,7 @@
         <v>760</v>
       </c>
       <c r="F75" t="str">
-        <v>750+720</v>
+        <v>750+-30</v>
       </c>
       <c r="G75" t="s">
         <v>492</v>
@@ -16390,7 +16390,7 @@
         <v>760</v>
       </c>
       <c r="F76" t="str">
-        <v>750+720</v>
+        <v>750+-30</v>
       </c>
       <c r="G76" t="s">
         <v>492</v>
@@ -16625,7 +16625,7 @@
         <v>800</v>
       </c>
       <c r="F78" t="str">
-        <v>236+350+740</v>
+        <v>236+114+390</v>
       </c>
       <c r="G78" t="s">
         <v>523</v>
@@ -16729,7 +16729,7 @@
         <v>800</v>
       </c>
       <c r="F79" t="str">
-        <v>501+760</v>
+        <v>501+259</v>
       </c>
       <c r="G79" t="s">
         <v>483</v>
@@ -18411,7 +18411,7 @@
         <v>890</v>
       </c>
       <c r="F95" t="str">
-        <v>123+850</v>
+        <v>123+727</v>
       </c>
       <c r="G95" t="s">
         <v>637</v>
@@ -18527,7 +18527,7 @@
         <v>760</v>
       </c>
       <c r="F96" t="str">
-        <v>753+680</v>
+        <v>753+-73</v>
       </c>
       <c r="G96" t="s">
         <v>651</v>
@@ -18750,7 +18750,7 @@
         <v>760</v>
       </c>
       <c r="F98" t="str">
-        <v>22+680</v>
+        <v>22+658</v>
       </c>
       <c r="G98" t="s">
         <v>677</v>
@@ -18973,7 +18973,7 @@
         <v>760</v>
       </c>
       <c r="F100" t="str">
-        <v>753+680</v>
+        <v>753+-73</v>
       </c>
       <c r="G100" t="s">
         <v>651</v>
@@ -19291,7 +19291,7 @@
         <v>760</v>
       </c>
       <c r="F103" t="str">
-        <v>22+680</v>
+        <v>22+658</v>
       </c>
       <c r="G103" t="s">
         <v>677</v>
@@ -19410,7 +19410,7 @@
         <v>760</v>
       </c>
       <c r="F104" t="str">
-        <v>14+60+754+720</v>
+        <v>14+46+694+-34</v>
       </c>
       <c r="G104" t="s">
         <v>710</v>
@@ -19502,7 +19502,7 @@
         <v>760</v>
       </c>
       <c r="F105" t="str">
-        <v>14+60+754+720</v>
+        <v>14+46+694+-34</v>
       </c>
       <c r="G105" t="s">
         <v>710</v>
@@ -19698,7 +19698,7 @@
         <v>890</v>
       </c>
       <c r="F107" t="str">
-        <v>123+850</v>
+        <v>123+727</v>
       </c>
       <c r="G107" t="s">
         <v>637</v>
@@ -19817,7 +19817,7 @@
         <v>890</v>
       </c>
       <c r="F108" t="str">
-        <v>123+850</v>
+        <v>123+727</v>
       </c>
       <c r="G108" t="s">
         <v>637</v>
@@ -19936,7 +19936,7 @@
         <v>800</v>
       </c>
       <c r="F109" t="str">
-        <v>148+540+760</v>
+        <v>148+392+220</v>
       </c>
       <c r="G109" t="s">
         <v>726</v>
@@ -20271,7 +20271,7 @@
         <v>800</v>
       </c>
       <c r="F113" t="str">
-        <v>148+540+760</v>
+        <v>148+392+220</v>
       </c>
       <c r="G113" t="s">
         <v>726</v>
@@ -20719,7 +20719,7 @@
         <v>760</v>
       </c>
       <c r="F118" t="str">
-        <v>27+742+720</v>
+        <v>27+715+-22</v>
       </c>
       <c r="G118" t="s">
         <v>769</v>
@@ -21031,7 +21031,7 @@
         <v>760</v>
       </c>
       <c r="F121" t="str">
-        <v>19+75+100+560+598+656+720</v>
+        <v>19+56+25+460+38+58+64</v>
       </c>
       <c r="G121" t="s">
         <v>798</v>
@@ -21126,7 +21126,7 @@
         <v>760</v>
       </c>
       <c r="F122" t="str">
-        <v>19+75+100+560+598+656+720</v>
+        <v>19+56+25+460+38+58+64</v>
       </c>
       <c r="G122" t="s">
         <v>798</v>
@@ -21221,7 +21221,7 @@
         <v>760</v>
       </c>
       <c r="F123" t="str">
-        <v>19+75+100+560+598+656+720</v>
+        <v>19+56+25+460+38+58+64</v>
       </c>
       <c r="G123" t="s">
         <v>798</v>
@@ -21316,7 +21316,7 @@
         <v>760</v>
       </c>
       <c r="F124" t="str">
-        <v>19+75+100+560+598+656+720</v>
+        <v>19+56+25+460+38+58+64</v>
       </c>
       <c r="G124" t="s">
         <v>798</v>
@@ -21411,7 +21411,7 @@
         <v>760</v>
       </c>
       <c r="F125" t="str">
-        <v>109+428+638+720</v>
+        <v>109+319+210+82</v>
       </c>
       <c r="G125" t="s">
         <v>814</v>
@@ -21702,7 +21702,7 @@
         <v>800</v>
       </c>
       <c r="F128" t="str">
-        <v>254+760</v>
+        <v>254+506</v>
       </c>
       <c r="G128" t="s">
         <v>838</v>
@@ -21904,7 +21904,7 @@
         <v>800</v>
       </c>
       <c r="F130" t="str">
-        <v>254+760</v>
+        <v>254+506</v>
       </c>
       <c r="G130" t="s">
         <v>838</v>
@@ -22100,7 +22100,7 @@
         <v>800</v>
       </c>
       <c r="F132" t="str">
-        <v>254+760</v>
+        <v>254+506</v>
       </c>
       <c r="G132" t="s">
         <v>838</v>
@@ -22216,7 +22216,7 @@
         <v>800</v>
       </c>
       <c r="F133" t="str">
-        <v>254+760</v>
+        <v>254+506</v>
       </c>
       <c r="G133" t="s">
         <v>838</v>
@@ -22332,7 +22332,7 @@
         <v>800</v>
       </c>
       <c r="F134" t="str">
-        <v>254+760</v>
+        <v>254+506</v>
       </c>
       <c r="G134" t="s">
         <v>838</v>
@@ -22454,7 +22454,7 @@
         <v>760</v>
       </c>
       <c r="F135" t="str">
-        <v>109+428+638+720</v>
+        <v>109+319+210+82</v>
       </c>
       <c r="G135" t="s">
         <v>814</v>
@@ -22775,7 +22775,7 @@
         <v>800</v>
       </c>
       <c r="F138" t="str">
-        <v>302+544+781+790+760</v>
+        <v>302+242+237+9+-30</v>
       </c>
       <c r="G138" t="s">
         <v>890</v>
@@ -22894,7 +22894,7 @@
         <v>800</v>
       </c>
       <c r="F139" t="str">
-        <v>302+544+781+790+760</v>
+        <v>302+242+237+9+-30</v>
       </c>
       <c r="G139" t="s">
         <v>890</v>
@@ -23182,7 +23182,7 @@
         <v>800</v>
       </c>
       <c r="F142" t="str">
-        <v>302+544+781+790+760</v>
+        <v>302+242+237+9+-30</v>
       </c>
       <c r="G142" t="s">
         <v>890</v>
@@ -23301,7 +23301,7 @@
         <v>800</v>
       </c>
       <c r="F143" t="str">
-        <v>302+544+781+790+760</v>
+        <v>302+242+237+9+-30</v>
       </c>
       <c r="G143" t="s">
         <v>890</v>
@@ -23420,7 +23420,7 @@
         <v>800</v>
       </c>
       <c r="F144" t="str">
-        <v>302+544+781+790+760</v>
+        <v>302+242+237+9+-30</v>
       </c>
       <c r="G144" t="s">
         <v>890</v>
@@ -23747,7 +23747,7 @@
         <v>800</v>
       </c>
       <c r="F147" t="str">
-        <v>302+544+781+790+760</v>
+        <v>302+242+237+9+-30</v>
       </c>
       <c r="G147" t="s">
         <v>890</v>
@@ -23866,7 +23866,7 @@
         <v>760</v>
       </c>
       <c r="F148" t="str">
-        <v>59+488+760</v>
+        <v>59+429+272</v>
       </c>
       <c r="G148" t="s">
         <v>931</v>
@@ -23979,7 +23979,7 @@
         <v>800</v>
       </c>
       <c r="F149" t="str">
-        <v>132+365+512+760</v>
+        <v>132+233+147+248</v>
       </c>
       <c r="G149" t="s">
         <v>941</v>
@@ -24104,7 +24104,7 @@
         <v>760</v>
       </c>
       <c r="F150" t="str">
-        <v>225+695+680</v>
+        <v>225+470+-15</v>
       </c>
       <c r="G150" t="s">
         <v>958</v>
@@ -24443,7 +24443,7 @@
         <v>800</v>
       </c>
       <c r="F153" t="str">
-        <v>36+489+547+760</v>
+        <v>36+453+58+213</v>
       </c>
       <c r="G153" t="s">
         <v>987</v>
@@ -24562,7 +24562,7 @@
         <v>800</v>
       </c>
       <c r="F154" t="str">
-        <v>36+489+547+760</v>
+        <v>36+453+58+213</v>
       </c>
       <c r="G154" t="s">
         <v>987</v>
@@ -24681,7 +24681,7 @@
         <v>800</v>
       </c>
       <c r="F155" t="str">
-        <v>36+489+547+760</v>
+        <v>36+453+58+213</v>
       </c>
       <c r="G155" t="s">
         <v>987</v>
@@ -24800,7 +24800,7 @@
         <v>800</v>
       </c>
       <c r="F156" t="str">
-        <v>36+489+547+760</v>
+        <v>36+453+58+213</v>
       </c>
       <c r="G156" t="s">
         <v>987</v>
@@ -25355,7 +25355,7 @@
         <v>800</v>
       </c>
       <c r="F162" t="str">
-        <v>36+489+547+760</v>
+        <v>36+453+58+213</v>
       </c>
       <c r="G162" t="s">
         <v>987</v>
@@ -25474,7 +25474,7 @@
         <v>800</v>
       </c>
       <c r="F163" t="str">
-        <v>36+489+547+760</v>
+        <v>36+453+58+213</v>
       </c>
       <c r="G163" t="s">
         <v>987</v>
@@ -28054,7 +28054,7 @@
         <v>800</v>
       </c>
       <c r="F190" t="str">
-        <v>22+81+452+760</v>
+        <v>22+59+371+308</v>
       </c>
       <c r="G190" t="s">
         <v>1138</v>
@@ -28173,7 +28173,7 @@
         <v>800</v>
       </c>
       <c r="F191" t="str">
-        <v>22+81+452+760</v>
+        <v>22+59+371+308</v>
       </c>
       <c r="G191" t="s">
         <v>1138</v>
@@ -28292,7 +28292,7 @@
         <v>800</v>
       </c>
       <c r="F192" t="str">
-        <v>22+81+452+760</v>
+        <v>22+59+371+308</v>
       </c>
       <c r="G192" t="s">
         <v>1138</v>
@@ -28411,7 +28411,7 @@
         <v>800</v>
       </c>
       <c r="F193" t="str">
-        <v>22+81+452+760</v>
+        <v>22+59+371+308</v>
       </c>
       <c r="G193" t="s">
         <v>1138</v>
@@ -28925,7 +28925,7 @@
         <v>800</v>
       </c>
       <c r="F198" t="str">
-        <v>164+787+760</v>
+        <v>164+623+-27</v>
       </c>
       <c r="G198" t="s">
         <v>1182</v>
@@ -29145,7 +29145,7 @@
         <v>800</v>
       </c>
       <c r="F200" t="str">
-        <v>619+760</v>
+        <v>619+141</v>
       </c>
       <c r="G200" t="s">
         <v>1201</v>
@@ -29267,7 +29267,7 @@
         <v>800</v>
       </c>
       <c r="F201" t="str">
-        <v>164+787+760</v>
+        <v>164+623+-27</v>
       </c>
       <c r="G201" t="s">
         <v>1182</v>
@@ -29377,7 +29377,7 @@
         <v>800</v>
       </c>
       <c r="F202" t="str">
-        <v>164+787+760</v>
+        <v>164+623+-27</v>
       </c>
       <c r="G202" t="s">
         <v>1182</v>
@@ -29591,7 +29591,7 @@
         <v>800</v>
       </c>
       <c r="F204" t="str">
-        <v>164+787+760</v>
+        <v>164+623+-27</v>
       </c>
       <c r="G204" t="s">
         <v>1182</v>
@@ -29707,7 +29707,7 @@
         <v>800</v>
       </c>
       <c r="F205" t="str">
-        <v>619+760</v>
+        <v>619+141</v>
       </c>
       <c r="G205" t="s">
         <v>1201</v>
@@ -30013,7 +30013,7 @@
         <v>800</v>
       </c>
       <c r="F208" t="str">
-        <v>21+45+325+683+760</v>
+        <v>21+24+280+358+77</v>
       </c>
       <c r="G208" t="s">
         <v>1225</v>
@@ -30470,7 +30470,7 @@
         <v>800</v>
       </c>
       <c r="F213" t="str">
-        <v>619+760</v>
+        <v>619+141</v>
       </c>
       <c r="G213" t="s">
         <v>1201</v>
@@ -30592,7 +30592,7 @@
         <v>800</v>
       </c>
       <c r="F214" t="str">
-        <v>164+787+760</v>
+        <v>164+623+-27</v>
       </c>
       <c r="G214" t="s">
         <v>1182</v>
@@ -30702,7 +30702,7 @@
         <v>800</v>
       </c>
       <c r="F215" t="str">
-        <v>21+45+325+683+760</v>
+        <v>21+24+280+358+77</v>
       </c>
       <c r="G215" t="s">
         <v>1225</v>
@@ -31819,7 +31819,7 @@
         <v>800</v>
       </c>
       <c r="F226" t="str">
-        <v>64+760</v>
+        <v>64+696</v>
       </c>
       <c r="G226" t="s">
         <v>1311</v>
@@ -32217,7 +32217,7 @@
         <v>800</v>
       </c>
       <c r="F230" t="str">
-        <v>64+760</v>
+        <v>64+696</v>
       </c>
       <c r="G230" t="s">
         <v>1311</v>
@@ -32315,7 +32315,7 @@
         <v>800</v>
       </c>
       <c r="F231" t="str">
-        <v>64+760</v>
+        <v>64+696</v>
       </c>
       <c r="G231" t="s">
         <v>1311</v>
@@ -33756,7 +33756,7 @@
         <v>840</v>
       </c>
       <c r="F245" t="str">
-        <v>262+800</v>
+        <v>262+538</v>
       </c>
       <c r="G245" t="s">
         <v>1382</v>
@@ -33872,7 +33872,7 @@
         <v>840</v>
       </c>
       <c r="F246" t="str">
-        <v>262+800</v>
+        <v>262+538</v>
       </c>
       <c r="G246" t="s">
         <v>1382</v>
@@ -34303,7 +34303,7 @@
         <v>800</v>
       </c>
       <c r="F250" t="str">
-        <v>78+93+167+270+340+447+632+660+760</v>
+        <v>78+15+74+103+70+107+185+28+100</v>
       </c>
       <c r="G250" t="s">
         <v>1403</v>
@@ -35048,7 +35048,7 @@
         <v>800</v>
       </c>
       <c r="F258" t="str">
-        <v>45+74+356+561+633+760</v>
+        <v>45+29+282+205+72+127</v>
       </c>
       <c r="G258" t="s">
         <v>1449</v>
@@ -35333,7 +35333,7 @@
         <v>800</v>
       </c>
       <c r="F261" t="str">
-        <v>45+74+356+561+633+760</v>
+        <v>45+29+282+205+72+127</v>
       </c>
       <c r="G261" t="s">
         <v>1449</v>
@@ -35535,7 +35535,7 @@
         <v>800</v>
       </c>
       <c r="F263" t="str">
-        <v>45+74+356+561+760</v>
+        <v>45+29+282+205+199</v>
       </c>
       <c r="G263" t="s">
         <v>1449</v>
@@ -36010,7 +36010,7 @@
         <v>800</v>
       </c>
       <c r="F268" t="str">
-        <v>47+504+564+760</v>
+        <v>47+457+60+196</v>
       </c>
       <c r="G268" t="s">
         <v>1484</v>
@@ -36132,7 +36132,7 @@
         <v>800</v>
       </c>
       <c r="F269" t="str">
-        <v>295+445+486+557+577+600</v>
+        <v>295+150+41+71+20+23</v>
       </c>
       <c r="G269" t="s">
         <v>1493</v>
@@ -36432,7 +36432,7 @@
         <v>800</v>
       </c>
       <c r="F272" t="str">
-        <v>47+504+564+760</v>
+        <v>47+457+60+196</v>
       </c>
       <c r="G272" t="s">
         <v>1484</v>
@@ -36554,7 +36554,7 @@
         <v>800</v>
       </c>
       <c r="F273" t="str">
-        <v>295+445+486+557+577+600</v>
+        <v>295+150+41+71+20+23</v>
       </c>
       <c r="G273" t="s">
         <v>1493</v>
@@ -36658,7 +36658,7 @@
         <v>800</v>
       </c>
       <c r="F274" t="str">
-        <v>47+504+564+760</v>
+        <v>47+457+60+196</v>
       </c>
       <c r="G274" t="s">
         <v>1484</v>
@@ -36863,7 +36863,7 @@
         <v>820</v>
       </c>
       <c r="F276" t="str">
-        <v>125+186+787+780</v>
+        <v>125+61+601+-7</v>
       </c>
       <c r="G276" t="s">
         <v>1529</v>
@@ -37478,7 +37478,7 @@
         <v>800</v>
       </c>
       <c r="F282" t="str">
-        <v>58+750</v>
+        <v>58+692</v>
       </c>
       <c r="G282" t="s">
         <v>1560</v>
@@ -38565,7 +38565,7 @@
         <v>800</v>
       </c>
       <c r="F293" t="str">
-        <v>78+93+167+270+340+447+632+660+760</v>
+        <v>78+15+74+103+70+107+185+28+100</v>
       </c>
       <c r="G293" t="s">
         <v>1403</v>
@@ -38672,7 +38672,7 @@
         <v>800</v>
       </c>
       <c r="F294" t="str">
-        <v>78+93+167+270+340+447+632+660+760</v>
+        <v>78+15+74+103+70+107+185+28+100</v>
       </c>
       <c r="G294" t="s">
         <v>1403</v>
@@ -38779,7 +38779,7 @@
         <v>800</v>
       </c>
       <c r="F295" t="str">
-        <v>78+93+167+270+340+447+632+660+760</v>
+        <v>78+15+74+103+70+107+185+28+100</v>
       </c>
       <c r="G295" t="s">
         <v>1403</v>
@@ -39076,7 +39076,7 @@
         <v>800</v>
       </c>
       <c r="F298" t="str">
-        <v>65+78+155+258+399+473+755+760</v>
+        <v>65+13+77+103+141+74+282+5</v>
       </c>
       <c r="G298" t="s">
         <v>1645</v>
@@ -39370,7 +39370,7 @@
         <v>800</v>
       </c>
       <c r="F301" t="str">
-        <v>65+78+155+258+399+473+755+760</v>
+        <v>65+13+77+103+141+74+282+5</v>
       </c>
       <c r="G301" t="s">
         <v>1645</v>
@@ -39575,7 +39575,7 @@
         <v>800</v>
       </c>
       <c r="F303" t="str">
-        <v>65+78+155+258+399+473+755+760</v>
+        <v>65+13+77+103+141+74+282+5</v>
       </c>
       <c r="G303" t="s">
         <v>1645</v>
@@ -39810,7 +39810,7 @@
         <v>800</v>
       </c>
       <c r="F305" t="str">
-        <v>25+760</v>
+        <v>25+735</v>
       </c>
       <c r="G305" t="s">
         <v>1678</v>
@@ -40006,7 +40006,7 @@
         <v>800</v>
       </c>
       <c r="F307" t="str">
-        <v>25+760</v>
+        <v>25+735</v>
       </c>
       <c r="G307" t="s">
         <v>1678</v>
@@ -40279,7 +40279,7 @@
         <v>800</v>
       </c>
       <c r="F310" t="str">
-        <v>25+760</v>
+        <v>25+735</v>
       </c>
       <c r="G310" t="s">
         <v>1678</v>
@@ -40641,7 +40641,7 @@
         <v>800</v>
       </c>
       <c r="F314" t="str">
-        <v>21+781+760</v>
+        <v>21+760+-21</v>
       </c>
       <c r="G314" t="s">
         <v>1715</v>
@@ -40873,7 +40873,7 @@
         <v>800</v>
       </c>
       <c r="F316" t="str">
-        <v>21+781+760</v>
+        <v>21+760+-21</v>
       </c>
       <c r="G316" t="s">
         <v>1715</v>
@@ -41102,7 +41102,7 @@
         <v>800</v>
       </c>
       <c r="F318" t="str">
-        <v>21+781+760</v>
+        <v>21+760+-21</v>
       </c>
       <c r="G318" t="s">
         <v>1715</v>
@@ -41221,7 +41221,7 @@
         <v>800</v>
       </c>
       <c r="F319" t="str">
-        <v>221+233+358+760</v>
+        <v>221+12+125+402</v>
       </c>
       <c r="G319" t="s">
         <v>1745</v>
@@ -41337,7 +41337,7 @@
         <v>800</v>
       </c>
       <c r="F320" t="str">
-        <v>221+233+358+760</v>
+        <v>221+12+125+402</v>
       </c>
       <c r="G320" t="s">
         <v>1745</v>
@@ -41536,7 +41536,7 @@
         <v>800</v>
       </c>
       <c r="F322" t="str">
-        <v>33+221+358+760</v>
+        <v>33+188+137+402</v>
       </c>
       <c r="G322" t="s">
         <v>1745</v>
@@ -43469,7 +43469,7 @@
         <v>800</v>
       </c>
       <c r="F342" t="str">
-        <v>37+236+417+752</v>
+        <v>37+199+181+335</v>
       </c>
       <c r="G342" t="s">
         <v>1831</v>
@@ -43585,7 +43585,7 @@
         <v>800</v>
       </c>
       <c r="F343" t="str">
-        <v>37+752</v>
+        <v>37+715</v>
       </c>
       <c r="G343" t="s">
         <v>1843</v>
@@ -43944,7 +43944,7 @@
         <v>800</v>
       </c>
       <c r="F347" t="str">
-        <v>37+752</v>
+        <v>37+715</v>
       </c>
       <c r="G347" t="s">
         <v>1843</v>
@@ -44060,7 +44060,7 @@
         <v>800</v>
       </c>
       <c r="F348" t="str">
-        <v>37+236+417+752</v>
+        <v>37+199+181+335</v>
       </c>
       <c r="G348" t="s">
         <v>1831</v>
@@ -44176,7 +44176,7 @@
         <v>800</v>
       </c>
       <c r="F349" t="str">
-        <v>37+752</v>
+        <v>37+715</v>
       </c>
       <c r="G349" t="s">
         <v>1843</v>
@@ -44363,7 +44363,7 @@
         <v>800</v>
       </c>
       <c r="F351" t="str">
-        <v>37+236+417+752</v>
+        <v>37+199+181+335</v>
       </c>
       <c r="G351" t="s">
         <v>1831</v>
@@ -47257,7 +47257,7 @@
         <v>680</v>
       </c>
       <c r="F382" t="str">
-        <v>652+640</v>
+        <v>652+-12</v>
       </c>
       <c r="G382" t="s">
         <v>2004</v>
@@ -47373,7 +47373,7 @@
         <v>680</v>
       </c>
       <c r="F383" t="str">
-        <v>652+640</v>
+        <v>652+-12</v>
       </c>
       <c r="G383" t="s">
         <v>2004</v>
@@ -47569,7 +47569,7 @@
         <v>680</v>
       </c>
       <c r="F385" t="str">
-        <v>652+640</v>
+        <v>652+-12</v>
       </c>
       <c r="G385" t="s">
         <v>2004</v>
@@ -48823,7 +48823,7 @@
         <v>800</v>
       </c>
       <c r="F397" t="str">
-        <v>697+760</v>
+        <v>697+63</v>
       </c>
       <c r="G397" t="s">
         <v>2098</v>
@@ -48939,7 +48939,7 @@
         <v>800</v>
       </c>
       <c r="F398" t="str">
-        <v>697+760</v>
+        <v>697+63</v>
       </c>
       <c r="G398" t="s">
         <v>2098</v>
@@ -49168,7 +49168,7 @@
         <v>800</v>
       </c>
       <c r="F400" t="str">
-        <v>28+291+652+682+712+766+760</v>
+        <v>28+263+361+30+30+54+-6</v>
       </c>
       <c r="G400" t="s">
         <v>2122</v>
@@ -49622,7 +49622,7 @@
         <v>800</v>
       </c>
       <c r="F405" t="str">
-        <v>258+789+760</v>
+        <v>258+531+-29</v>
       </c>
       <c r="G405" t="s">
         <v>2146</v>
@@ -50166,7 +50166,7 @@
         <v>800</v>
       </c>
       <c r="F410" t="str">
-        <v>258+789+760</v>
+        <v>258+531+-29</v>
       </c>
       <c r="G410" t="s">
         <v>2146</v>
@@ -50466,7 +50466,7 @@
         <v>840</v>
       </c>
       <c r="F413" t="str">
-        <v>493+800</v>
+        <v>493+307</v>
       </c>
       <c r="G413" t="s">
         <v>2184</v>
@@ -51422,7 +51422,7 @@
         <v>800</v>
       </c>
       <c r="F423" t="str">
-        <v>659+766+760</v>
+        <v>659+107+-6</v>
       </c>
       <c r="G423" t="s">
         <v>2241</v>
@@ -51535,7 +51535,7 @@
         <v>800</v>
       </c>
       <c r="F424" t="str">
-        <v>659+766+760</v>
+        <v>659+107+-6</v>
       </c>
       <c r="G424" t="s">
         <v>2241</v>
@@ -51648,7 +51648,7 @@
         <v>800</v>
       </c>
       <c r="F425" t="str">
-        <v>659+766+760</v>
+        <v>659+107+-6</v>
       </c>
       <c r="G425" t="s">
         <v>2241</v>
@@ -51761,7 +51761,7 @@
         <v>800</v>
       </c>
       <c r="F426" t="str">
-        <v>659+766+760</v>
+        <v>659+107+-6</v>
       </c>
       <c r="G426" t="s">
         <v>2241</v>
@@ -51874,7 +51874,7 @@
         <v>800</v>
       </c>
       <c r="F427" t="str">
-        <v>659+766+760</v>
+        <v>659+107+-6</v>
       </c>
       <c r="G427" t="s">
         <v>2241</v>
@@ -51987,7 +51987,7 @@
         <v>800</v>
       </c>
       <c r="F428" t="str">
-        <v>659+766+760</v>
+        <v>659+107+-6</v>
       </c>
       <c r="G428" t="s">
         <v>2241</v>
@@ -52103,7 +52103,7 @@
         <v>800</v>
       </c>
       <c r="F429" t="str">
-        <v>659+766+760</v>
+        <v>659+107+-6</v>
       </c>
       <c r="G429" t="s">
         <v>2241</v>
@@ -53314,7 +53314,7 @@
         <v>800</v>
       </c>
       <c r="F442" t="str">
-        <v>77+221+332+386+671+714+760</v>
+        <v>77+144+111+54+285+43+46</v>
       </c>
       <c r="G442" t="s">
         <v>2312</v>
@@ -53436,7 +53436,7 @@
         <v>800</v>
       </c>
       <c r="F443" t="str">
-        <v>77+221+332+386+671+714+760</v>
+        <v>77+144+111+54+285+43+46</v>
       </c>
       <c r="G443" t="s">
         <v>2312</v>
@@ -53558,7 +53558,7 @@
         <v>800</v>
       </c>
       <c r="F444" t="str">
-        <v>77+221+332+386+671+714+760</v>
+        <v>77+144+111+54+285+43+46</v>
       </c>
       <c r="G444" t="s">
         <v>2312</v>
@@ -53763,7 +53763,7 @@
         <v>800</v>
       </c>
       <c r="F446" t="str">
-        <v>77+221+332+386+671+714+760</v>
+        <v>77+144+111+54+285+43+46</v>
       </c>
       <c r="G446" t="s">
         <v>2312</v>
@@ -54051,7 +54051,7 @@
         <v>800</v>
       </c>
       <c r="F449" t="str">
-        <v>77+221+332+386+671+714+760</v>
+        <v>77+144+111+54+285+43+46</v>
       </c>
       <c r="G449" t="s">
         <v>2312</v>
@@ -54286,7 +54286,7 @@
         <v>800</v>
       </c>
       <c r="F451" t="str">
-        <v>330+780+760</v>
+        <v>330+450+-20</v>
       </c>
       <c r="G451" t="s">
         <v>2351</v>
@@ -54485,7 +54485,7 @@
         <v>800</v>
       </c>
       <c r="F453" t="str">
-        <v>300+760</v>
+        <v>300+460</v>
       </c>
       <c r="G453" t="s">
         <v>2370</v>
@@ -54684,7 +54684,7 @@
         <v>800</v>
       </c>
       <c r="F455" t="str">
-        <v>300+760</v>
+        <v>300+460</v>
       </c>
       <c r="G455" t="s">
         <v>2370</v>
@@ -54880,7 +54880,7 @@
         <v>800</v>
       </c>
       <c r="F457" t="str">
-        <v>300+760</v>
+        <v>300+460</v>
       </c>
       <c r="G457" t="s">
         <v>2370</v>
@@ -54990,7 +54990,7 @@
         <v>800</v>
       </c>
       <c r="F458" t="str">
-        <v>300+760</v>
+        <v>300+460</v>
       </c>
       <c r="G458" t="s">
         <v>2370</v>
@@ -55109,7 +55109,7 @@
         <v>800</v>
       </c>
       <c r="F459" t="str">
-        <v>300+760</v>
+        <v>300+460</v>
       </c>
       <c r="G459" t="s">
         <v>2370</v>
@@ -55225,7 +55225,7 @@
         <v>800</v>
       </c>
       <c r="F460" t="str">
-        <v>300+760</v>
+        <v>300+460</v>
       </c>
       <c r="G460" t="s">
         <v>2370</v>
@@ -55344,7 +55344,7 @@
         <v>800</v>
       </c>
       <c r="F461" t="str">
-        <v>300+760</v>
+        <v>300+460</v>
       </c>
       <c r="G461" t="s">
         <v>2370</v>
@@ -55570,7 +55570,7 @@
         <v>800</v>
       </c>
       <c r="F463" t="str">
-        <v>300+760</v>
+        <v>300+460</v>
       </c>
       <c r="G463" t="s">
         <v>2370</v>
@@ -55686,7 +55686,7 @@
         <v>800</v>
       </c>
       <c r="F464" t="str">
-        <v>298+760</v>
+        <v>298+462</v>
       </c>
       <c r="G464" t="s">
         <v>2409</v>
@@ -55918,7 +55918,7 @@
         <v>800</v>
       </c>
       <c r="F466" t="str">
-        <v>298+760</v>
+        <v>298+462</v>
       </c>
       <c r="G466" t="s">
         <v>2409</v>
@@ -56034,7 +56034,7 @@
         <v>800</v>
       </c>
       <c r="F467" t="str">
-        <v>222+429+760</v>
+        <v>222+207+331</v>
       </c>
       <c r="G467" t="s">
         <v>2431</v>
@@ -56126,7 +56126,7 @@
         <v>800</v>
       </c>
       <c r="F468" t="str">
-        <v>298+760</v>
+        <v>298+462</v>
       </c>
       <c r="G468" t="s">
         <v>2409</v>
@@ -56242,7 +56242,7 @@
         <v>800</v>
       </c>
       <c r="F469" t="str">
-        <v>298+760</v>
+        <v>298+462</v>
       </c>
       <c r="G469" t="s">
         <v>2409</v>
@@ -56438,7 +56438,7 @@
         <v>800</v>
       </c>
       <c r="F471" t="str">
-        <v>222+429+760</v>
+        <v>222+207+331</v>
       </c>
       <c r="G471" t="s">
         <v>2431</v>
@@ -56776,7 +56776,7 @@
         <v>800</v>
       </c>
       <c r="F475" t="str">
-        <v>298+760</v>
+        <v>298+462</v>
       </c>
       <c r="G475" t="s">
         <v>2409</v>
@@ -56892,7 +56892,7 @@
         <v>800</v>
       </c>
       <c r="F476" t="str">
-        <v>222+429+760</v>
+        <v>222+207+331</v>
       </c>
       <c r="G476" t="s">
         <v>2431</v>
@@ -56984,7 +56984,7 @@
         <v>800</v>
       </c>
       <c r="F477" t="str">
-        <v>298+760</v>
+        <v>298+462</v>
       </c>
       <c r="G477" t="s">
         <v>2409</v>
@@ -57183,7 +57183,7 @@
         <v>800</v>
       </c>
       <c r="F479" t="str">
-        <v>298+760</v>
+        <v>298+462</v>
       </c>
       <c r="G479" t="s">
         <v>2409</v>
@@ -57726,7 +57726,7 @@
         <v>800</v>
       </c>
       <c r="F485" t="str">
-        <v>39+272+322+384+433+610+768+760</v>
+        <v>39+233+50+62+49+177+158+-8</v>
       </c>
       <c r="G485" t="s">
         <v>2497</v>
@@ -57848,7 +57848,7 @@
         <v>800</v>
       </c>
       <c r="F486" t="str">
-        <v>39+272+322+384+433+610+768+760</v>
+        <v>39+233+50+62+49+177+158+-8</v>
       </c>
       <c r="G486" t="s">
         <v>2497</v>
@@ -57964,7 +57964,7 @@
         <v>800</v>
       </c>
       <c r="F487" t="str">
-        <v>39+272+322+384+433+610+768+760</v>
+        <v>39+233+50+62+49+177+158+-8</v>
       </c>
       <c r="G487" t="s">
         <v>2497</v>
@@ -58807,7 +58807,7 @@
         <v>800</v>
       </c>
       <c r="F496" t="str">
-        <v>773+760</v>
+        <v>773+-13</v>
       </c>
       <c r="G496" t="s">
         <v>2552</v>
@@ -59238,7 +59238,7 @@
         <v>800</v>
       </c>
       <c r="F500" t="str">
-        <v>39+272+322+384+433+610+768+760</v>
+        <v>39+233+50+62+49+177+158+-8</v>
       </c>
       <c r="G500" t="s">
         <v>2497</v>
@@ -60007,7 +60007,7 @@
         <v>800</v>
       </c>
       <c r="F508" t="str">
-        <v>39+272+322+384+433+610+768+760</v>
+        <v>39+233+50+62+49+177+158+-8</v>
       </c>
       <c r="G508" t="s">
         <v>2497</v>
@@ -61262,7 +61262,7 @@
         <v>760</v>
       </c>
       <c r="F522" t="str">
-        <v>36+49+255+741+720</v>
+        <v>36+13+206+486+-21</v>
       </c>
       <c r="G522" t="s">
         <v>2659</v>
@@ -62224,7 +62224,7 @@
         <v>760</v>
       </c>
       <c r="F532" t="str">
-        <v>199+720</v>
+        <v>199+521</v>
       </c>
       <c r="G532" t="s">
         <v>2714</v>
@@ -62340,7 +62340,7 @@
         <v>760</v>
       </c>
       <c r="F533" t="str">
-        <v>199+720</v>
+        <v>199+521</v>
       </c>
       <c r="G533" t="s">
         <v>2714</v>
@@ -62456,7 +62456,7 @@
         <v>760</v>
       </c>
       <c r="F534" t="str">
-        <v>199+720</v>
+        <v>199+521</v>
       </c>
       <c r="G534" t="s">
         <v>2714</v>
@@ -64110,7 +64110,7 @@
         <v>840</v>
       </c>
       <c r="F551" t="str">
-        <v>330+780+800</v>
+        <v>330+450+20</v>
       </c>
       <c r="G551" t="s">
         <v>2351</v>
